--- a/Elif_DataFiles/080814_comparison_raw.xlsx
+++ b/Elif_DataFiles/080814_comparison_raw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="firefly" sheetId="1" r:id="rId1"/>
@@ -6794,8 +6794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="M244" sqref="M244"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -31667,8 +31667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB289"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="S261" sqref="S261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
